--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MasterAu/Documents/GitHub/team-capers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{036C3D02-01B1-DF4D-9CBF-F864AF77C7B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CF0F89-47E9-EE40-B46D-D90A9E69CD7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{F0D21C0D-FC9E-ED4F-BBF9-4AB2B50626E6}"/>
   </bookViews>
@@ -35,9 +35,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
-    <t>FIELD</t>
-  </si>
-  <si>
     <t>INPUT</t>
   </si>
   <si>
@@ -105,6 +102,9 @@
   </si>
   <si>
     <t>Clicking this field creates your .ics field according to the fields chosen above and automatically moves to your downloads folder. The new .ics file will be ready for import in a calendaring system such as Google calendar or Apple calendar</t>
+  </si>
+  <si>
+    <t>FIELD/CASE</t>
   </si>
 </sst>
 </file>
@@ -468,7 +468,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -480,90 +480,90 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
         <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
         <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
         <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
         <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MasterAu/Documents/GitHub/team-capers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CF0F89-47E9-EE40-B46D-D90A9E69CD7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4660C784-B3B8-D847-9F8F-7F98F19B94C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{F0D21C0D-FC9E-ED4F-BBF9-4AB2B50626E6}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>INPUT</t>
   </si>
@@ -105,6 +105,15 @@
   </si>
   <si>
     <t>FIELD/CASE</t>
+  </si>
+  <si>
+    <t>Current Date and Time</t>
+  </si>
+  <si>
+    <t>If the user chooses a date and time prior to the current date and time</t>
+  </si>
+  <si>
+    <t>Display error and error message notifying if the start date is prior to the current date. If start date and current date are the same, ensure that the start time is not prior to the current time</t>
   </si>
 </sst>
 </file>
@@ -465,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA4AE9EE-7BD7-FC43-8B52-33FEFC537E83}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -566,6 +575,17 @@
         <v>22</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MasterAu/Documents/GitHub/team-capers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4660C784-B3B8-D847-9F8F-7F98F19B94C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24CA8C7-F859-1144-BE69-5B500FCFE899}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{F0D21C0D-FC9E-ED4F-BBF9-4AB2B50626E6}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>INPUT</t>
   </si>
@@ -107,13 +107,40 @@
     <t>FIELD/CASE</t>
   </si>
   <si>
-    <t>Current Date and Time</t>
-  </si>
-  <si>
     <t>If the user chooses a date and time prior to the current date and time</t>
   </si>
   <si>
     <t>Display error and error message notifying if the start date is prior to the current date. If start date and current date are the same, ensure that the start time is not prior to the current time</t>
+  </si>
+  <si>
+    <t>Invalid date such as 2/31</t>
+  </si>
+  <si>
+    <t>Invalid date in Date selection boxes such as February 31</t>
+  </si>
+  <si>
+    <t>Invalid entry please check start date or end date</t>
+  </si>
+  <si>
+    <t>Event start and end on same day</t>
+  </si>
+  <si>
+    <t>An event that starts and ends on the same day with an end time before the start time</t>
+  </si>
+  <si>
+    <t>Invalid entry end time is before start time</t>
+  </si>
+  <si>
+    <t>Prior to Current Date and Time</t>
+  </si>
+  <si>
+    <t>End date before start date</t>
+  </si>
+  <si>
+    <t>Choosing an end date that is before the start date</t>
+  </si>
+  <si>
+    <t>Invalid entry end date is before start date</t>
   </si>
 </sst>
 </file>
@@ -474,15 +501,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA4AE9EE-7BD7-FC43-8B52-33FEFC537E83}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="32.1640625" customWidth="1"/>
     <col min="2" max="2" width="87.83203125" customWidth="1"/>
     <col min="3" max="3" width="197.83203125" customWidth="1"/>
   </cols>
@@ -577,13 +604,46 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27907"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MasterAu/Documents/GitHub/team-capers/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dylandecker/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24CA8C7-F859-1144-BE69-5B500FCFE899}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{F0D21C0D-FC9E-ED4F-BBF9-4AB2B50626E6}"/>
+    <workbookView xWindow="4420" yWindow="1020" windowWidth="25600" windowHeight="14640"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>INPUT</t>
   </si>
@@ -141,12 +146,24 @@
   </si>
   <si>
     <t>Invalid entry end date is before start date</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Classification</t>
+  </si>
+  <si>
+    <t>Choose the 'private' option</t>
+  </si>
+  <si>
+    <t>Your .ics will be created with a "private" visibility setting.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -500,11 +517,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA4AE9EE-7BD7-FC43-8B52-33FEFC537E83}">
-  <dimension ref="A1:C12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -646,6 +663,22 @@
         <v>35</v>
       </c>
     </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27907"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dylandecker/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\team-capers\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39318EB6-55B4-4284-9ABC-A841D6963D95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4420" yWindow="1020" windowWidth="25600" windowHeight="14640"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -19,26 +20,18 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>INPUT</t>
   </si>
@@ -158,12 +151,15 @@
   </si>
   <si>
     <t>Your .ics will be created with a "private" visibility setting.</t>
+  </si>
+  <si>
+    <t>Start Time != End Time ***</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -517,21 +513,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="32.1640625" customWidth="1"/>
     <col min="2" max="2" width="87.83203125" customWidth="1"/>
     <col min="3" max="3" width="197.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -542,7 +538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -553,7 +549,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -564,7 +560,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -575,7 +571,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -586,7 +582,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -597,7 +593,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -608,7 +604,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -619,7 +615,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -630,7 +626,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -641,7 +637,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -652,7 +648,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -663,12 +659,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -677,6 +673,11 @@
       </c>
       <c r="C14" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
